--- a/test.xlsx
+++ b/test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>(mm) 0% 10% 30% 60% Width Height 0% 10% 30% 60% 90 1.0 1.0 1.0 0.5 50 100 1.0 1.0 0.5 0.5 120 1.5 1.5 1.0 1.0 100 100 1.5 1.5 1.0 0.5 140 2.0 2.0 1.5 1.0 100 150 2.0 2.0 1.5 1.0 160 2.5 2.5 2.0 1.0 100 200 2.5 2.5 2.0 1.0 180 3.0 3.0 2.5 1.5 100 250 3.0 3.0 2.5 1.5 200 4.0 3.5 3.0 1.5 100 300 3.5 3.5 2.5 1.5 220 4.5 4.0 3.5 2.0 200 200 5.0 4.5 3.5 2.0 240 5.5 5.0 4.0 2.5 200 225 5.5 5.0 4.0 2.5 250 6.0 5.5 4.0 2.5 200 250 6.0 5.5 4.5 2.5 280 7.5 6.5 5.0 3.0 200 300 7.0 6.5 5.0 3.0 300 8.5 7.5 6.0 3.5 200 400 9.5 8.5 6.5 4.0 320 9.5 8.5 6.5 4.0 300 300 10.5 9.5 7.5 4.5 340 10.5 9.5 7.5 4.5 300 350 12.5 11.0 8.5 5.0 350 11.5 10.0 8.0 4.5 300 400 14.0 12.5 10.0 6.0 400 14.5 13.5 10.5 6.0 400 400 18.5 17.0 13.0 7.5</t>
   </si>
@@ -61,15 +62,62 @@
   <si>
     <t>koef</t>
   </si>
+  <si>
+    <t>sirina</t>
+  </si>
+  <si>
+    <t>visina</t>
+  </si>
+  <si>
+    <t>precnik cevi</t>
+  </si>
+  <si>
+    <t>debljina yida</t>
+  </si>
+  <si>
+    <t>broj prodora</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>ACR</t>
+  </si>
+  <si>
+    <t>Pena</t>
+  </si>
+  <si>
+    <t>precnik sa trakom</t>
+  </si>
+  <si>
+    <t>kolutova trake</t>
+  </si>
+  <si>
+    <t>krugova</t>
+  </si>
+  <si>
+    <t>precnik rupe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _R_S_D_-;\-* #,##0\ _R_S_D_-;_-* &quot;-&quot;\ _R_S_D_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _R_S_D_-;\-* #,##0.00\ _R_S_D_-;_-* &quot;-&quot;\ _R_S_D_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000\ _R_S_D_-;\-* #,##0.000\ _R_S_D_-;_-* &quot;-&quot;\ _R_S_D_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,18 +156,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2316,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2542,7 @@
         <v>4.1025641025641022</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" ref="P6:P19" si="3">L6/4</f>
+        <f t="shared" ref="P6:P7" si="3">L6/4</f>
         <v>0.5</v>
       </c>
     </row>
@@ -2644,7 +2704,7 @@
         <v>5.1282051282051277</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" ref="P9:P19" si="4">L9/5</f>
+        <f t="shared" ref="P9:P18" si="4">L9/5</f>
         <v>1</v>
       </c>
     </row>
@@ -3214,7 +3274,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="D23" s="4">
-        <f>(POWER((A23/2),2)*3.14*200)/1000000</f>
+        <f t="shared" ref="D23:D37" si="5">(POWER((A23/2),2)*3.14*200)/1000000</f>
         <v>1.2717000000000001</v>
       </c>
       <c r="E23">
@@ -3230,15 +3290,15 @@
         <v>1.5</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24:C37" si="5">B24*0.325</f>
+        <f t="shared" ref="C24:C37" si="6">B24*0.325</f>
         <v>0.48750000000000004</v>
       </c>
       <c r="D24" s="4">
-        <f>(POWER((A24/2),2)*3.14*200)/1000000</f>
+        <f t="shared" si="5"/>
         <v>2.2608000000000001</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E37" si="6">D24/C24</f>
+        <f t="shared" ref="E24:E37" si="7">D24/C24</f>
         <v>4.6375384615384618</v>
       </c>
     </row>
@@ -3250,15 +3310,15 @@
         <v>2</v>
       </c>
       <c r="C25" s="4">
+        <f t="shared" si="6"/>
+        <v>0.65</v>
+      </c>
+      <c r="D25" s="4">
         <f t="shared" si="5"/>
-        <v>0.65</v>
-      </c>
-      <c r="D25" s="4">
-        <f>(POWER((A25/2),2)*3.14*200)/1000000</f>
         <v>3.0771999999999999</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.7341538461538457</v>
       </c>
     </row>
@@ -3270,15 +3330,15 @@
         <v>2.5</v>
       </c>
       <c r="C26" s="4">
+        <f t="shared" si="6"/>
+        <v>0.8125</v>
+      </c>
+      <c r="D26" s="4">
         <f t="shared" si="5"/>
-        <v>0.8125</v>
-      </c>
-      <c r="D26" s="4">
-        <f>(POWER((A26/2),2)*3.14*200)/1000000</f>
         <v>4.0191999999999997</v>
       </c>
       <c r="E26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.946707692307692</v>
       </c>
     </row>
@@ -3290,15 +3350,15 @@
         <v>3</v>
       </c>
       <c r="C27" s="4">
+        <f t="shared" si="6"/>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="D27" s="4">
         <f t="shared" si="5"/>
-        <v>0.97500000000000009</v>
-      </c>
-      <c r="D27" s="4">
-        <f>(POWER((A27/2),2)*3.14*200)/1000000</f>
         <v>5.0868000000000002</v>
       </c>
       <c r="E27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2172307692307687</v>
       </c>
     </row>
@@ -3310,15 +3370,15 @@
         <v>4</v>
       </c>
       <c r="C28" s="4">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="D28" s="4">
         <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-      <c r="D28" s="4">
-        <f>(POWER((A28/2),2)*3.14*200)/1000000</f>
         <v>6.28</v>
       </c>
       <c r="E28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.8307692307692305</v>
       </c>
     </row>
@@ -3330,15 +3390,15 @@
         <v>4.5</v>
       </c>
       <c r="C29" s="4">
+        <f t="shared" si="6"/>
+        <v>1.4625000000000001</v>
+      </c>
+      <c r="D29" s="4">
         <f t="shared" si="5"/>
-        <v>1.4625000000000001</v>
-      </c>
-      <c r="D29" s="4">
-        <f>(POWER((A29/2),2)*3.14*200)/1000000</f>
         <v>7.5987999999999998</v>
       </c>
       <c r="E29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.1957606837606836</v>
       </c>
     </row>
@@ -3350,15 +3410,15 @@
         <v>5.5</v>
       </c>
       <c r="C30" s="4">
+        <f t="shared" si="6"/>
+        <v>1.7875000000000001</v>
+      </c>
+      <c r="D30" s="4">
         <f t="shared" si="5"/>
-        <v>1.7875000000000001</v>
-      </c>
-      <c r="D30" s="4">
-        <f>(POWER((A30/2),2)*3.14*200)/1000000</f>
         <v>9.0432000000000006</v>
       </c>
       <c r="E30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.0591328671328668</v>
       </c>
     </row>
@@ -3370,15 +3430,15 @@
         <v>6</v>
       </c>
       <c r="C31" s="4">
+        <f t="shared" si="6"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="D31" s="4">
         <f t="shared" si="5"/>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="D31" s="4">
-        <f>(POWER((A31/2),2)*3.14*200)/1000000</f>
         <v>9.8125</v>
       </c>
       <c r="E31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.0320512820512819</v>
       </c>
     </row>
@@ -3390,15 +3450,15 @@
         <v>7.5</v>
       </c>
       <c r="C32" s="4">
+        <f t="shared" si="6"/>
+        <v>2.4375</v>
+      </c>
+      <c r="D32" s="4">
         <f t="shared" si="5"/>
-        <v>2.4375</v>
-      </c>
-      <c r="D32" s="4">
-        <f>(POWER((A32/2),2)*3.14*200)/1000000</f>
         <v>12.3088</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.0497641025641027</v>
       </c>
     </row>
@@ -3410,15 +3470,15 @@
         <v>8.5</v>
       </c>
       <c r="C33" s="4">
+        <f t="shared" si="6"/>
+        <v>2.7625000000000002</v>
+      </c>
+      <c r="D33" s="4">
         <f t="shared" si="5"/>
-        <v>2.7625000000000002</v>
-      </c>
-      <c r="D33" s="4">
-        <f>(POWER((A33/2),2)*3.14*200)/1000000</f>
         <v>14.13</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.1149321266968322</v>
       </c>
     </row>
@@ -3430,15 +3490,15 @@
         <v>9.5</v>
       </c>
       <c r="C34" s="4">
+        <f t="shared" si="6"/>
+        <v>3.0874999999999999</v>
+      </c>
+      <c r="D34" s="4">
         <f t="shared" si="5"/>
-        <v>3.0874999999999999</v>
-      </c>
-      <c r="D34" s="4">
-        <f>(POWER((A34/2),2)*3.14*200)/1000000</f>
         <v>16.076799999999999</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2070607287449393</v>
       </c>
     </row>
@@ -3450,15 +3510,15 @@
         <v>10.5</v>
       </c>
       <c r="C35" s="4">
+        <f t="shared" si="6"/>
+        <v>3.4125000000000001</v>
+      </c>
+      <c r="D35" s="4">
         <f t="shared" si="5"/>
-        <v>3.4125000000000001</v>
-      </c>
-      <c r="D35" s="4">
-        <f>(POWER((A35/2),2)*3.14*200)/1000000</f>
         <v>18.1492</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3184468864468863</v>
       </c>
     </row>
@@ -3470,15 +3530,15 @@
         <v>11.5</v>
       </c>
       <c r="C36" s="4">
+        <f t="shared" si="6"/>
+        <v>3.7375000000000003</v>
+      </c>
+      <c r="D36" s="4">
         <f t="shared" si="5"/>
-        <v>3.7375000000000003</v>
-      </c>
-      <c r="D36" s="4">
-        <f>(POWER((A36/2),2)*3.14*200)/1000000</f>
         <v>19.232500000000002</v>
       </c>
       <c r="E36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.1458193979933116</v>
       </c>
     </row>
@@ -3490,15 +3550,15 @@
         <v>14.5</v>
       </c>
       <c r="C37" s="4">
+        <f t="shared" si="6"/>
+        <v>4.7125000000000004</v>
+      </c>
+      <c r="D37" s="4">
         <f t="shared" si="5"/>
-        <v>4.7125000000000004</v>
-      </c>
-      <c r="D37" s="4">
-        <f>(POWER((A37/2),2)*3.14*200)/1000000</f>
         <v>25.12</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3305039787798405</v>
       </c>
     </row>
@@ -3506,4 +3566,237 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <f>B5+B8*9</f>
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <f>E5+E8*9</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6">
+        <f>(B2*B3-B5*B5*3.14/4)*2*1.1*1.4*B6/1000000</f>
+        <v>0.11715549999999998</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6">
+        <f>3.14*(POWER(E3,2)-POWER(E5,2))*(E3-E5)*E6/2000000</f>
+        <v>18.369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6">
+        <f>(3*B2+2*B3-B5+B5*3.14)*B4*B6*0.4/1000000</f>
+        <v>8.856E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8">
+        <f>(B2*B3-(B5*B5*3.14/4))*B4*B6/(5000000)</f>
+        <v>1.5215000000000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6">
+        <f>(POWER(E3,2)-POWER(E5,2))*3.14*E4*E6/(4000000*G3)</f>
+        <v>11.509398496240602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <f>(B2*B3-B7*B7*3.14/4)*2*1.1*1.4*B6/1000000</f>
+        <v>0.1147836382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <f>(3*B2+2*B3-B7+B7*3.14)*B4*B6*0.4/1000000</f>
+        <v>9.0100800000000009E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6">
+        <f>3.14*(POWER(E3,2)-POWER(E7,2))*(E3-E7)*E6/2000000</f>
+        <v>9.6239430000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9">
+        <f>B6/_xlfn.FLOOR.MATH(10000/(B7*3.14*B8))</f>
+        <v>1.8867924528301886E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6">
+        <f>E6/_xlfn.FLOOR.MATH(10000/(E7*3.14*E8))</f>
+        <v>1.8867924528301887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <f>(B2*B3-(B7*B7*3.14/4))*B4*B6/(4000000)</f>
+        <v>1.8633707500000001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="6">
+        <f>(POWER(E3,2)-POWER(E7,2))*3.14*E4*E6/(4000000*G3)</f>
+        <v>8.614342105263157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9">
+        <f>B6/_xlfn.FLOOR.MATH(10000/(B7*3.14*B8))</f>
+        <v>1.8867924528301886E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6">
+        <f>E6/_xlfn.FLOOR.MATH(10000/(E7*3.14*E8))</f>
+        <v>1.8867924528301887</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>